--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pravindu\Documents\Analog Function Generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git Repositories\Analog-Function-Generator\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5298FD-46E4-460C-8BC1-4903365E7E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E871D38-CA15-4482-9D7A-66762D000CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C48D7EA6-B50F-4DA3-991D-CABFA016A4AB}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Unit Price</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>LM318N</t>
   </si>
   <si>
@@ -108,14 +105,25 @@
   </si>
   <si>
     <t>PCB (5 boards with shipping)</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -131,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,15 +147,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Total" xfId="1" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FED7167-9002-403F-B1D7-A9A00ECB8850}">
-  <dimension ref="D3:H25"/>
+  <dimension ref="D2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="219" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,386 +537,324 @@
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
     <row r="3" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>270</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>11</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <f>G4*F4</f>
         <v>2970</v>
       </c>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D5">
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H22" si="0">G5*F5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>50</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4">
+        <v>800</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4">
+        <v>240</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4">
+        <v>300</v>
+      </c>
+      <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4">
+        <v>50</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H25" si="0">G5*F5</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>10.5</v>
-      </c>
-      <c r="G9">
-        <v>50</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9414.4699999999993</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>9414.4699999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F12">
-        <v>800</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>240</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D16">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>300</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D21">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F22" s="4">
+        <v>8006.62</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>8006.62</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D22">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D23">
-        <v>19</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24">
-        <v>19</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25">
-        <v>19</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <f>SUM(H4:H22)</f>
+        <v>23385.09</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
